--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2239496666666667</v>
+        <v>0.7402036666666666</v>
       </c>
       <c r="H2">
-        <v>0.671849</v>
+        <v>2.220611</v>
       </c>
       <c r="I2">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="J2">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.298807</v>
+        <v>0.5306206666666666</v>
       </c>
       <c r="N2">
-        <v>0.8964210000000001</v>
+        <v>1.591862</v>
       </c>
       <c r="O2">
-        <v>0.1375952161456007</v>
+        <v>0.2609258655515381</v>
       </c>
       <c r="P2">
-        <v>0.1375952161456007</v>
+        <v>0.260925865551538</v>
       </c>
       <c r="Q2">
-        <v>0.06691772804766669</v>
+        <v>0.3927673630757777</v>
       </c>
       <c r="R2">
-        <v>0.6022595524290001</v>
+        <v>3.534906267682</v>
       </c>
       <c r="S2">
-        <v>0.006317925827514699</v>
+        <v>0.03703097939945819</v>
       </c>
       <c r="T2">
-        <v>0.006317925827514699</v>
+        <v>0.03703097939945819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2239496666666667</v>
+        <v>0.7402036666666666</v>
       </c>
       <c r="H3">
-        <v>0.671849</v>
+        <v>2.220611</v>
       </c>
       <c r="I3">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="J3">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>3.734983</v>
       </c>
       <c r="O3">
-        <v>0.5732973604870302</v>
+        <v>0.61220989765148</v>
       </c>
       <c r="P3">
-        <v>0.5732973604870303</v>
+        <v>0.6122098976514799</v>
       </c>
       <c r="Q3">
-        <v>0.2788160659518889</v>
+        <v>0.9215493705125555</v>
       </c>
       <c r="R3">
-        <v>2.509344593567</v>
+        <v>8.293944334613</v>
       </c>
       <c r="S3">
-        <v>0.02632395443773443</v>
+        <v>0.08688572158285489</v>
       </c>
       <c r="T3">
-        <v>0.02632395443773443</v>
+        <v>0.08688572158285489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2239496666666667</v>
+        <v>0.7402036666666666</v>
       </c>
       <c r="H4">
-        <v>0.671849</v>
+        <v>2.220611</v>
       </c>
       <c r="I4">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="J4">
-        <v>0.04591675498971699</v>
+        <v>0.1419214585000345</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6278366666666667</v>
+        <v>0.257992</v>
       </c>
       <c r="N4">
-        <v>1.88351</v>
+        <v>0.773976</v>
       </c>
       <c r="O4">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="P4">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="Q4">
-        <v>0.1406038122211111</v>
+        <v>0.1909666243706666</v>
       </c>
       <c r="R4">
-        <v>1.26543430999</v>
+        <v>1.718699619336</v>
       </c>
       <c r="S4">
-        <v>0.01327487472446787</v>
+        <v>0.01800475751772142</v>
       </c>
       <c r="T4">
-        <v>0.01327487472446787</v>
+        <v>0.01800475751772142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7402036666666666</v>
+        <v>0.3561633333333333</v>
       </c>
       <c r="H5">
-        <v>2.220611</v>
+        <v>1.06849</v>
       </c>
       <c r="I5">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="J5">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.298807</v>
+        <v>0.5306206666666666</v>
       </c>
       <c r="N5">
-        <v>0.8964210000000001</v>
+        <v>1.591862</v>
       </c>
       <c r="O5">
-        <v>0.1375952161456007</v>
+        <v>0.2609258655515381</v>
       </c>
       <c r="P5">
-        <v>0.1375952161456007</v>
+        <v>0.260925865551538</v>
       </c>
       <c r="Q5">
-        <v>0.2211780370256667</v>
+        <v>0.1889876253755556</v>
       </c>
       <c r="R5">
-        <v>1.990602333231</v>
+        <v>1.70088862838</v>
       </c>
       <c r="S5">
-        <v>0.02088215594540327</v>
+        <v>0.01781817309674098</v>
       </c>
       <c r="T5">
-        <v>0.02088215594540327</v>
+        <v>0.01781817309674098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7402036666666666</v>
+        <v>0.3561633333333333</v>
       </c>
       <c r="H6">
-        <v>2.220611</v>
+        <v>1.06849</v>
       </c>
       <c r="I6">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="J6">
-        <v>0.1517651305791486</v>
+        <v>0.06828825903893201</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,22 +812,22 @@
         <v>3.734983</v>
       </c>
       <c r="O6">
-        <v>0.5732973604870302</v>
+        <v>0.61220989765148</v>
       </c>
       <c r="P6">
-        <v>0.5732973604870303</v>
+        <v>0.6122098976514799</v>
       </c>
       <c r="Q6">
-        <v>0.9215493705125555</v>
+        <v>0.4434213317411111</v>
       </c>
       <c r="R6">
-        <v>8.293944334613</v>
+        <v>3.99079198567</v>
       </c>
       <c r="S6">
-        <v>0.08700654877499538</v>
+        <v>0.04180674807702232</v>
       </c>
       <c r="T6">
-        <v>0.08700654877499539</v>
+        <v>0.04180674807702232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.3561633333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.06849</v>
+      </c>
+      <c r="I7">
+        <v>0.06828825903893201</v>
+      </c>
+      <c r="J7">
+        <v>0.06828825903893201</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.7402036666666666</v>
-      </c>
-      <c r="H7">
-        <v>2.220611</v>
-      </c>
-      <c r="I7">
-        <v>0.1517651305791486</v>
-      </c>
-      <c r="J7">
-        <v>0.1517651305791486</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.6278366666666667</v>
+        <v>0.257992</v>
       </c>
       <c r="N7">
-        <v>1.88351</v>
+        <v>0.773976</v>
       </c>
       <c r="O7">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="P7">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="Q7">
-        <v>0.4647270027344444</v>
+        <v>0.09188729069333333</v>
       </c>
       <c r="R7">
-        <v>4.18254302461</v>
+        <v>0.82698561624</v>
       </c>
       <c r="S7">
-        <v>0.04387642585874996</v>
+        <v>0.008663337865168711</v>
       </c>
       <c r="T7">
-        <v>0.04387642585874998</v>
+        <v>0.008663337865168709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1166683333333333</v>
+        <v>4.119219666666667</v>
       </c>
       <c r="H8">
-        <v>0.350005</v>
+        <v>12.357659</v>
       </c>
       <c r="I8">
-        <v>0.02392069323639076</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="J8">
-        <v>0.02392069323639075</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.298807</v>
+        <v>0.5306206666666666</v>
       </c>
       <c r="N8">
-        <v>0.8964210000000001</v>
+        <v>1.591862</v>
       </c>
       <c r="O8">
-        <v>0.1375952161456007</v>
+        <v>0.2609258655515381</v>
       </c>
       <c r="P8">
-        <v>0.1375952161456007</v>
+        <v>0.260925865551538</v>
       </c>
       <c r="Q8">
-        <v>0.03486131467833334</v>
+        <v>2.185743085673111</v>
       </c>
       <c r="R8">
-        <v>0.3137518321050001</v>
+        <v>19.671687771058</v>
       </c>
       <c r="S8">
-        <v>0.003291372956213795</v>
+        <v>0.2060767130553389</v>
       </c>
       <c r="T8">
-        <v>0.003291372956213795</v>
+        <v>0.2060767130553388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1166683333333333</v>
+        <v>4.119219666666667</v>
       </c>
       <c r="H9">
-        <v>0.350005</v>
+        <v>12.357659</v>
       </c>
       <c r="I9">
-        <v>0.02392069323639076</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="J9">
-        <v>0.02392069323639075</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +998,22 @@
         <v>3.734983</v>
       </c>
       <c r="O9">
-        <v>0.5732973604870302</v>
+        <v>0.61220989765148</v>
       </c>
       <c r="P9">
-        <v>0.5732973604870303</v>
+        <v>0.6122098976514799</v>
       </c>
       <c r="Q9">
-        <v>0.1452514138794444</v>
+        <v>5.128405142755223</v>
       </c>
       <c r="R9">
-        <v>1.307262724915</v>
+        <v>46.155646284797</v>
       </c>
       <c r="S9">
-        <v>0.01371367029344278</v>
+        <v>0.4835174279916028</v>
       </c>
       <c r="T9">
-        <v>0.01371367029344278</v>
+        <v>0.4835174279916027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,619 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1166683333333333</v>
+        <v>4.119219666666667</v>
       </c>
       <c r="H10">
-        <v>0.350005</v>
+        <v>12.357659</v>
       </c>
       <c r="I10">
-        <v>0.02392069323639076</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="J10">
-        <v>0.02392069323639075</v>
+        <v>0.7897902824610334</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6278366666666667</v>
+        <v>0.257992</v>
       </c>
       <c r="N10">
-        <v>1.88351</v>
+        <v>0.773976</v>
       </c>
       <c r="O10">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="P10">
-        <v>0.2891074233673691</v>
+        <v>0.1268642367969819</v>
       </c>
       <c r="Q10">
-        <v>0.07324865750555556</v>
+        <v>1.062725720242667</v>
       </c>
       <c r="R10">
-        <v>0.6592379175500001</v>
+        <v>9.564531482184</v>
       </c>
       <c r="S10">
-        <v>0.006915649986734184</v>
+        <v>0.1001961414140918</v>
       </c>
       <c r="T10">
-        <v>0.006915649986734184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1911673333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.5735020000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="J11">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.298807</v>
-      </c>
-      <c r="N11">
-        <v>0.8964210000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.1375952161456007</v>
-      </c>
-      <c r="P11">
-        <v>0.1375952161456007</v>
-      </c>
-      <c r="Q11">
-        <v>0.05712213737133335</v>
-      </c>
-      <c r="R11">
-        <v>0.5140992363420002</v>
-      </c>
-      <c r="S11">
-        <v>0.005393091450506489</v>
-      </c>
-      <c r="T11">
-        <v>0.005393091450506491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1911673333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.5735020000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="J12">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.244994333333333</v>
-      </c>
-      <c r="N12">
-        <v>3.734983</v>
-      </c>
-      <c r="O12">
-        <v>0.5732973604870302</v>
-      </c>
-      <c r="P12">
-        <v>0.5732973604870303</v>
-      </c>
-      <c r="Q12">
-        <v>0.2380022467184445</v>
-      </c>
-      <c r="R12">
-        <v>2.142020220466</v>
-      </c>
-      <c r="S12">
-        <v>0.0224705856791475</v>
-      </c>
-      <c r="T12">
-        <v>0.0224705856791475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1911673333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.5735020000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="J13">
-        <v>0.03919534124500099</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6278366666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.88351</v>
-      </c>
-      <c r="O13">
-        <v>0.2891074233673691</v>
-      </c>
-      <c r="P13">
-        <v>0.2891074233673691</v>
-      </c>
-      <c r="Q13">
-        <v>0.1200218613355556</v>
-      </c>
-      <c r="R13">
-        <v>1.08019675202</v>
-      </c>
-      <c r="S13">
-        <v>0.011331664115347</v>
-      </c>
-      <c r="T13">
-        <v>0.01133166411534701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.024446</v>
-      </c>
-      <c r="H14">
-        <v>9.073338</v>
-      </c>
-      <c r="I14">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="J14">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.298807</v>
-      </c>
-      <c r="N14">
-        <v>0.8964210000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.1375952161456007</v>
-      </c>
-      <c r="P14">
-        <v>0.1375952161456007</v>
-      </c>
-      <c r="Q14">
-        <v>0.9037256359220001</v>
-      </c>
-      <c r="R14">
-        <v>8.133530723298001</v>
-      </c>
-      <c r="S14">
-        <v>0.08532375056295469</v>
-      </c>
-      <c r="T14">
-        <v>0.0853237505629547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.024446</v>
-      </c>
-      <c r="H15">
-        <v>9.073338</v>
-      </c>
-      <c r="I15">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="J15">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.244994333333333</v>
-      </c>
-      <c r="N15">
-        <v>3.734983</v>
-      </c>
-      <c r="O15">
-        <v>0.5732973604870302</v>
-      </c>
-      <c r="P15">
-        <v>0.5732973604870303</v>
-      </c>
-      <c r="Q15">
-        <v>3.765418131472666</v>
-      </c>
-      <c r="R15">
-        <v>33.888763183254</v>
-      </c>
-      <c r="S15">
-        <v>0.3555056807558906</v>
-      </c>
-      <c r="T15">
-        <v>0.3555056807558906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.024446</v>
-      </c>
-      <c r="H16">
-        <v>9.073338</v>
-      </c>
-      <c r="I16">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="J16">
-        <v>0.6201069554094576</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6278366666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.88351</v>
-      </c>
-      <c r="O16">
-        <v>0.2891074233673691</v>
-      </c>
-      <c r="P16">
-        <v>0.2891074233673691</v>
-      </c>
-      <c r="Q16">
-        <v>1.898858095153333</v>
-      </c>
-      <c r="R16">
-        <v>17.08972285638</v>
-      </c>
-      <c r="S16">
-        <v>0.1792775240906123</v>
-      </c>
-      <c r="T16">
-        <v>0.1792775240906123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.5808623333333333</v>
-      </c>
-      <c r="H17">
-        <v>1.742587</v>
-      </c>
-      <c r="I17">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="J17">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.298807</v>
-      </c>
-      <c r="N17">
-        <v>0.8964210000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.1375952161456007</v>
-      </c>
-      <c r="P17">
-        <v>0.1375952161456007</v>
-      </c>
-      <c r="Q17">
-        <v>0.1735657312363333</v>
-      </c>
-      <c r="R17">
-        <v>1.562091581127</v>
-      </c>
-      <c r="S17">
-        <v>0.01638691940300775</v>
-      </c>
-      <c r="T17">
-        <v>0.01638691940300775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.5808623333333333</v>
-      </c>
-      <c r="H18">
-        <v>1.742587</v>
-      </c>
-      <c r="I18">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="J18">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.244994333333333</v>
-      </c>
-      <c r="N18">
-        <v>3.734983</v>
-      </c>
-      <c r="O18">
-        <v>0.5732973604870302</v>
-      </c>
-      <c r="P18">
-        <v>0.5732973604870303</v>
-      </c>
-      <c r="Q18">
-        <v>0.7231703134467776</v>
-      </c>
-      <c r="R18">
-        <v>6.508532821021</v>
-      </c>
-      <c r="S18">
-        <v>0.06827692054581953</v>
-      </c>
-      <c r="T18">
-        <v>0.06827692054581955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.5808623333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.742587</v>
-      </c>
-      <c r="I19">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="J19">
-        <v>0.119095124540285</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6278366666666667</v>
-      </c>
-      <c r="N19">
-        <v>1.88351</v>
-      </c>
-      <c r="O19">
-        <v>0.2891074233673691</v>
-      </c>
-      <c r="P19">
-        <v>0.2891074233673691</v>
-      </c>
-      <c r="Q19">
-        <v>0.3646866711522222</v>
-      </c>
-      <c r="R19">
-        <v>3.28218004037</v>
-      </c>
-      <c r="S19">
-        <v>0.03443128459145772</v>
-      </c>
-      <c r="T19">
-        <v>0.03443128459145773</v>
+        <v>0.1001961414140918</v>
       </c>
     </row>
   </sheetData>
